--- a/exam_seating_planner/desk_cards_Abdul Kadir Molla International School_Afternoon.xlsx
+++ b/exam_seating_planner/desk_cards_Abdul Kadir Molla International School_Afternoon.xlsx
@@ -533,39 +533,56 @@
         </is>
       </c>
     </row>
+    <row r="14">
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Column 1</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Column 2</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Column 3</t>
+        </is>
+      </c>
+    </row>
     <row r="15">
-      <c r="B15" t="n">
+      <c r="C15" t="n">
         <v>9095</v>
       </c>
     </row>
     <row r="16">
-      <c r="B16" t="n">
+      <c r="C16" t="n">
         <v>9096</v>
       </c>
     </row>
     <row r="17">
-      <c r="B17" t="n">
+      <c r="C17" t="n">
         <v>9097</v>
       </c>
-      <c r="C17" t="n">
+      <c r="D17" t="n">
         <v>9107</v>
       </c>
     </row>
     <row r="18">
-      <c r="B18" t="n">
+      <c r="C18" t="n">
         <v>9099</v>
       </c>
-      <c r="C18" t="n">
+      <c r="D18" t="n">
         <v>9105</v>
       </c>
     </row>
     <row r="19">
-      <c r="B19" t="n">
+      <c r="C19" t="n">
         <v>9101</v>
       </c>
     </row>
     <row r="20">
-      <c r="B20" t="n">
+      <c r="C20" t="n">
         <v>9104</v>
       </c>
     </row>
